--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Icam1-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H2">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I2">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J2">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.370512</v>
+        <v>0.2680845</v>
       </c>
       <c r="N2">
-        <v>0.741024</v>
+        <v>0.536169</v>
       </c>
       <c r="O2">
-        <v>0.001638838393995521</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P2">
-        <v>0.00109315609805839</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q2">
-        <v>11.021717167632</v>
+        <v>5.587608561333</v>
       </c>
       <c r="R2">
-        <v>44.086868670528</v>
+        <v>22.350434245332</v>
       </c>
       <c r="S2">
-        <v>0.0003109304614030679</v>
+        <v>3.589670287292768E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001482868014740184</v>
+        <v>1.631679712327248E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H3">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I3">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J3">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -629,22 +629,22 @@
         <v>0.040702</v>
       </c>
       <c r="O3">
-        <v>6.001065220776088E-05</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P3">
-        <v>6.004345271296557E-05</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q3">
-        <v>0.4035910057406666</v>
+        <v>0.2827800484093334</v>
       </c>
       <c r="R3">
-        <v>2.421546034443999</v>
+        <v>1.696680290456</v>
       </c>
       <c r="S3">
-        <v>1.138558862693396E-05</v>
+        <v>1.816675464059407E-06</v>
       </c>
       <c r="T3">
-        <v>8.144904070037537E-06</v>
+        <v>1.238651015839104E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H4">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I4">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J4">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6539663333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N4">
-        <v>373.961899</v>
+        <v>481.13453</v>
       </c>
       <c r="O4">
-        <v>0.5513659638308389</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P4">
-        <v>0.5516673283636506</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q4">
-        <v>3708.11407120288</v>
+        <v>3342.716468104807</v>
       </c>
       <c r="R4">
-        <v>22248.68442721728</v>
+        <v>20056.29880862884</v>
       </c>
       <c r="S4">
-        <v>0.1046085289214542</v>
+        <v>0.02147475051748697</v>
       </c>
       <c r="T4">
-        <v>0.07483376230170673</v>
+        <v>0.01464197765072404</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H5">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I5">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J5">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>0.4121773333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N5">
-        <v>1.236532</v>
+        <v>1.222236</v>
       </c>
       <c r="O5">
-        <v>0.001823131339879293</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P5">
-        <v>0.001824127823450168</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q5">
-        <v>12.26114671295067</v>
+        <v>12.737357694252</v>
       </c>
       <c r="R5">
-        <v>73.56688027770399</v>
+        <v>50.949430777008</v>
       </c>
       <c r="S5">
-        <v>0.0003458956482737926</v>
+        <v>8.182912949572922E-05</v>
       </c>
       <c r="T5">
-        <v>0.0002474432342275971</v>
+        <v>3.719531873114646E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.747261</v>
+        <v>20.842714</v>
       </c>
       <c r="H6">
-        <v>59.494522</v>
+        <v>41.685428</v>
       </c>
       <c r="I6">
-        <v>0.1897261270801773</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J6">
-        <v>0.1356501617082849</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,33 +809,33 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>100.6318613333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N6">
-        <v>301.895584</v>
+        <v>571.812989</v>
       </c>
       <c r="O6">
-        <v>0.4451120557830785</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P6">
-        <v>0.4453553442621278</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q6">
-        <v>2993.522243998475</v>
+        <v>3972.711530404049</v>
       </c>
       <c r="R6">
-        <v>17961.13346399085</v>
+        <v>23836.26918242429</v>
       </c>
       <c r="S6">
-        <v>0.0844493864604193</v>
+        <v>0.02552205363733408</v>
       </c>
       <c r="T6">
-        <v>0.06041252446680653</v>
+        <v>0.01740152178504359</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.75021766666667</v>
+        <v>20.842714</v>
       </c>
       <c r="H7">
-        <v>65.250653</v>
+        <v>41.685428</v>
       </c>
       <c r="I7">
-        <v>0.1387214964445808</v>
+        <v>0.06176264451223276</v>
       </c>
       <c r="J7">
-        <v>0.1487743969271858</v>
+        <v>0.04208443214243528</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.370512</v>
+        <v>109.381785</v>
       </c>
       <c r="N7">
-        <v>0.741024</v>
+        <v>328.145355</v>
       </c>
       <c r="O7">
-        <v>0.001638838393995521</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P7">
-        <v>0.00109315609805839</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q7">
-        <v>8.058716648112</v>
+        <v>2279.81326156449</v>
       </c>
       <c r="R7">
-        <v>48.352299888672</v>
+        <v>13678.87956938694</v>
       </c>
       <c r="S7">
-        <v>0.0002273421144458922</v>
+        <v>0.01464629784957899</v>
       </c>
       <c r="T7">
-        <v>0.0001626336392359126</v>
+        <v>0.009986181939797389</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>65.250653</v>
       </c>
       <c r="I8">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J8">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.01356733333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N8">
-        <v>0.040702</v>
+        <v>0.536169</v>
       </c>
       <c r="O8">
-        <v>6.001065220776088E-05</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P8">
-        <v>6.004345271296557E-05</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q8">
-        <v>0.2950924531562222</v>
+        <v>5.8308962280595</v>
       </c>
       <c r="R8">
-        <v>2.655832078406</v>
+        <v>34.985377368357</v>
       </c>
       <c r="S8">
-        <v>8.324767476875875E-06</v>
+        <v>3.745966580944477E-05</v>
       </c>
       <c r="T8">
-        <v>8.932928466797449E-06</v>
+        <v>2.554085967792032E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>65.250653</v>
       </c>
       <c r="I9">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J9">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>124.6539663333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N9">
-        <v>373.961899</v>
+        <v>0.040702</v>
       </c>
       <c r="O9">
-        <v>0.5513659638308389</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P9">
-        <v>0.5516673283636506</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q9">
-        <v>2711.250900763339</v>
+        <v>0.2950924531562222</v>
       </c>
       <c r="R9">
-        <v>24401.25810687005</v>
+        <v>2.655832078406</v>
       </c>
       <c r="S9">
-        <v>0.07648631159122259</v>
+        <v>1.895774550904685E-06</v>
       </c>
       <c r="T9">
-        <v>0.08207397408173389</v>
+        <v>1.938873882322016E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>65.250653</v>
       </c>
       <c r="I10">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J10">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4121773333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N10">
-        <v>1.236532</v>
+        <v>481.13453</v>
       </c>
       <c r="O10">
-        <v>0.001823131339879293</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P10">
-        <v>0.001824127823450168</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q10">
-        <v>8.964946717266223</v>
+        <v>3488.260251483122</v>
       </c>
       <c r="R10">
-        <v>80.684520455396</v>
+        <v>31394.34226334809</v>
       </c>
       <c r="S10">
-        <v>0.0002529075076830692</v>
+        <v>0.02240977341495471</v>
       </c>
       <c r="T10">
-        <v>0.0002713835168518988</v>
+        <v>0.02291924657511371</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,45 +1107,45 @@
         <v>65.250653</v>
       </c>
       <c r="I11">
-        <v>0.1387214964445808</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J11">
-        <v>0.1487743969271858</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M11">
-        <v>100.6318613333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N11">
-        <v>301.895584</v>
+        <v>1.222236</v>
       </c>
       <c r="O11">
-        <v>0.4451120557830785</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P11">
-        <v>0.4453553442621278</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q11">
-        <v>2188.764888201817</v>
+        <v>13.291949520018</v>
       </c>
       <c r="R11">
-        <v>19698.88399381635</v>
+        <v>79.75169712010801</v>
       </c>
       <c r="S11">
-        <v>0.06174661046375237</v>
+        <v>8.539201651022819E-05</v>
       </c>
       <c r="T11">
-        <v>0.06625747276089726</v>
+        <v>5.822223621526538E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,51 +1163,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.00397566666667</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H12">
-        <v>93.011927</v>
+        <v>65.250653</v>
       </c>
       <c r="I12">
-        <v>0.1977413728048684</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J12">
-        <v>0.2120713389099788</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.370512</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N12">
-        <v>0.741024</v>
+        <v>571.812989</v>
       </c>
       <c r="O12">
-        <v>0.001638838393995521</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P12">
-        <v>0.00109315609805839</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q12">
-        <v>11.487345032208</v>
+        <v>4145.685658459091</v>
       </c>
       <c r="R12">
-        <v>68.924070193248</v>
+        <v>37311.17092613182</v>
       </c>
       <c r="S12">
-        <v>0.0003240661538340002</v>
+        <v>0.02663329842324555</v>
       </c>
       <c r="T12">
-        <v>0.0002318270773528509</v>
+        <v>0.02723879096714132</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.00397566666667</v>
+        <v>21.75021766666667</v>
       </c>
       <c r="H13">
-        <v>93.011927</v>
+        <v>65.250653</v>
       </c>
       <c r="I13">
-        <v>0.1977413728048684</v>
+        <v>0.06445182531459281</v>
       </c>
       <c r="J13">
-        <v>0.2120713389099788</v>
+        <v>0.0658752185158826</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.01356733333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N13">
-        <v>0.040702</v>
+        <v>328.145355</v>
       </c>
       <c r="O13">
-        <v>6.001065220776088E-05</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P13">
-        <v>6.004345271296557E-05</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q13">
-        <v>0.4206412725282222</v>
+        <v>2379.077632518535</v>
       </c>
       <c r="R13">
-        <v>3.785771452754</v>
+        <v>21411.69869266681</v>
       </c>
       <c r="S13">
-        <v>1.186658875047815E-05</v>
+        <v>0.01528400601952197</v>
       </c>
       <c r="T13">
-        <v>1.273349540961661E-05</v>
+        <v>0.01563147900385205</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H14">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I14">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J14">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.6539663333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N14">
-        <v>373.961899</v>
+        <v>0.536169</v>
       </c>
       <c r="O14">
-        <v>0.5513659638308389</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P14">
-        <v>0.5516673283636506</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q14">
-        <v>3864.768538952153</v>
+        <v>10.2275116960775</v>
       </c>
       <c r="R14">
-        <v>34782.91685056937</v>
+        <v>61.365070176465</v>
       </c>
       <c r="S14">
-        <v>0.1090278626057895</v>
+        <v>6.570502290087082E-05</v>
       </c>
       <c r="T14">
-        <v>0.1169928289589703</v>
+        <v>4.479919224539812E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H15">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I15">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J15">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.4121773333333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N15">
-        <v>1.236532</v>
+        <v>0.040702</v>
       </c>
       <c r="O15">
-        <v>0.001823131339879293</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P15">
-        <v>0.001824127823450168</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q15">
-        <v>12.77913601301822</v>
+        <v>0.5175982212744444</v>
       </c>
       <c r="R15">
-        <v>115.012224117164</v>
+        <v>4.65838399147</v>
       </c>
       <c r="S15">
-        <v>0.0003605084939513106</v>
+        <v>3.325227483761332E-06</v>
       </c>
       <c r="T15">
-        <v>0.0003868452298620227</v>
+        <v>3.400824595924409E-06</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>31.00397566666667</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H16">
-        <v>93.011927</v>
+        <v>114.450985</v>
       </c>
       <c r="I16">
-        <v>0.1977413728048684</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J16">
-        <v>0.2120713389099788</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,95 +1429,95 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>100.6318613333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N16">
-        <v>301.895584</v>
+        <v>481.13453</v>
       </c>
       <c r="O16">
-        <v>0.4451120557830785</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P16">
-        <v>0.4453553442621278</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q16">
-        <v>3119.987780070041</v>
+        <v>6118.480097334674</v>
       </c>
       <c r="R16">
-        <v>28079.89002063037</v>
+        <v>55066.32087601205</v>
       </c>
       <c r="S16">
-        <v>0.08801706896254313</v>
+        <v>0.03930720265693556</v>
       </c>
       <c r="T16">
-        <v>0.09444710414838399</v>
+        <v>0.0402008290396671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.0364265</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H17">
-        <v>4.072853</v>
+        <v>114.450985</v>
       </c>
       <c r="I17">
-        <v>0.0129881979026049</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J17">
-        <v>0.009286286358668003</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M17">
-        <v>0.370512</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N17">
-        <v>0.741024</v>
+        <v>1.222236</v>
       </c>
       <c r="O17">
-        <v>0.001638838393995521</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P17">
-        <v>0.00109315609805839</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q17">
-        <v>0.7545204553680001</v>
+        <v>23.31435235041</v>
       </c>
       <c r="R17">
-        <v>3.018081821472</v>
+        <v>139.88611410246</v>
       </c>
       <c r="S17">
-        <v>2.128555739160102E-05</v>
+        <v>0.0001497793501121265</v>
       </c>
       <c r="T17">
-        <v>1.015136056129437E-05</v>
+        <v>0.0001021229976616448</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.0364265</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H18">
-        <v>4.072853</v>
+        <v>114.450985</v>
       </c>
       <c r="I18">
-        <v>0.0129881979026049</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J18">
-        <v>0.009286286358668003</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M18">
-        <v>0.01356733333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N18">
-        <v>0.040702</v>
+        <v>571.812989</v>
       </c>
       <c r="O18">
-        <v>6.001065220776088E-05</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P18">
-        <v>6.004345271296557E-05</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q18">
-        <v>0.02762887713433333</v>
+        <v>7271.617758538241</v>
       </c>
       <c r="R18">
-        <v>0.165773262806</v>
+        <v>65444.55982684417</v>
       </c>
       <c r="S18">
-        <v>7.794302271387922E-07</v>
+        <v>0.04671535223317076</v>
       </c>
       <c r="T18">
-        <v>5.575806958557394E-07</v>
+        <v>0.04777739858631648</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,25 +1588,25 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.0364265</v>
+        <v>38.15032833333333</v>
       </c>
       <c r="H19">
-        <v>4.072853</v>
+        <v>114.450985</v>
       </c>
       <c r="I19">
-        <v>0.0129881979026049</v>
+        <v>0.1130498248393481</v>
       </c>
       <c r="J19">
-        <v>0.009286286358668003</v>
+        <v>0.115546485737591</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.6539663333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N19">
-        <v>373.961899</v>
+        <v>328.145355</v>
       </c>
       <c r="O19">
-        <v>0.5513659638308389</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P19">
-        <v>0.5516673283636506</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q19">
-        <v>253.8486403713079</v>
+        <v>4172.951011436075</v>
       </c>
       <c r="R19">
-        <v>1523.091842227847</v>
+        <v>37556.55910292468</v>
       </c>
       <c r="S19">
-        <v>0.007161250254995434</v>
+        <v>0.026808460348745</v>
       </c>
       <c r="T19">
-        <v>0.00512294078590619</v>
+        <v>0.02741793509710448</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H20">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I20">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J20">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K20">
         <v>2</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4121773333333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N20">
-        <v>1.236532</v>
+        <v>0.536169</v>
       </c>
       <c r="O20">
-        <v>0.001823131339879293</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P20">
-        <v>0.001824127823450168</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q20">
-        <v>0.8393688442993334</v>
+        <v>0.27679925688375</v>
       </c>
       <c r="R20">
-        <v>5.036213065796</v>
+        <v>1.107197027535</v>
       </c>
       <c r="S20">
-        <v>2.36791906447935E-05</v>
+        <v>1.778252819741679E-06</v>
       </c>
       <c r="T20">
-        <v>1.693937332337205E-05</v>
+        <v>8.083023835455045E-07</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,51 +1721,51 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.0364265</v>
+        <v>1.0325075</v>
       </c>
       <c r="H21">
-        <v>4.072853</v>
+        <v>2.065015</v>
       </c>
       <c r="I21">
-        <v>0.0129881979026049</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J21">
-        <v>0.009286286358668003</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>100.6318613333333</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N21">
-        <v>301.895584</v>
+        <v>0.040702</v>
       </c>
       <c r="O21">
-        <v>0.4451120557830785</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P21">
-        <v>0.4453553442621278</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q21">
-        <v>204.9293891635253</v>
+        <v>0.01400837342166667</v>
       </c>
       <c r="R21">
-        <v>1229.576334981152</v>
+        <v>0.08405024053</v>
       </c>
       <c r="S21">
-        <v>0.005781203469345937</v>
+        <v>8.999456796784327E-08</v>
       </c>
       <c r="T21">
-        <v>0.00413569725818129</v>
+        <v>6.136036140670036E-08</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>17.571287</v>
+        <v>1.0325075</v>
       </c>
       <c r="H22">
-        <v>52.713861</v>
+        <v>2.065015</v>
       </c>
       <c r="I22">
-        <v>0.1120685440694613</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J22">
-        <v>0.1201899524281925</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.370512</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N22">
-        <v>0.741024</v>
+        <v>481.13453</v>
       </c>
       <c r="O22">
-        <v>0.001638838393995521</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P22">
-        <v>0.00109315609805839</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q22">
-        <v>6.510372688944001</v>
+        <v>165.5916702446583</v>
       </c>
       <c r="R22">
-        <v>39.062236133664</v>
+        <v>993.55002146795</v>
       </c>
       <c r="S22">
-        <v>0.0001836622327802122</v>
+        <v>0.001063817359386795</v>
       </c>
       <c r="T22">
-        <v>0.0001313863794222265</v>
+        <v>0.0007253350854022632</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,87 +1836,87 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>17.571287</v>
+        <v>1.0325075</v>
       </c>
       <c r="H23">
-        <v>52.713861</v>
+        <v>2.065015</v>
       </c>
       <c r="I23">
-        <v>0.1120685440694613</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J23">
-        <v>0.1201899524281925</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M23">
-        <v>0.01356733333333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N23">
-        <v>0.040702</v>
+        <v>1.222236</v>
       </c>
       <c r="O23">
-        <v>6.001065220776088E-05</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P23">
-        <v>6.004345271296557E-05</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q23">
-        <v>0.2383955078246667</v>
+        <v>0.630983918385</v>
       </c>
       <c r="R23">
-        <v>2.145559570422</v>
+        <v>2.52393567354</v>
       </c>
       <c r="S23">
-        <v>6.725306421582565E-06</v>
+        <v>4.05365586855971E-06</v>
       </c>
       <c r="T23">
-        <v>7.216619725195759E-06</v>
+        <v>1.842583722772341E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>17.571287</v>
+        <v>1.0325075</v>
       </c>
       <c r="H24">
-        <v>52.713861</v>
+        <v>2.065015</v>
       </c>
       <c r="I24">
-        <v>0.1120685440694613</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J24">
-        <v>0.1201899524281925</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,33 +1925,33 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.6539663333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N24">
-        <v>373.961899</v>
+        <v>571.812989</v>
       </c>
       <c r="O24">
-        <v>0.5513659638308389</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P24">
-        <v>0.5516673283636506</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q24">
-        <v>2190.330618131338</v>
+        <v>196.8003999133058</v>
       </c>
       <c r="R24">
-        <v>19712.97556318204</v>
+        <v>1180.802399479835</v>
       </c>
       <c r="S24">
-        <v>0.06179078081597737</v>
+        <v>0.001264312881515801</v>
       </c>
       <c r="T24">
-        <v>0.06630486995221524</v>
+        <v>0.0008620375328506111</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>17.571287</v>
+        <v>1.0325075</v>
       </c>
       <c r="H25">
-        <v>52.713861</v>
+        <v>2.065015</v>
       </c>
       <c r="I25">
-        <v>0.1120685440694613</v>
+        <v>0.003059601243807028</v>
       </c>
       <c r="J25">
-        <v>0.1201899524281925</v>
+        <v>0.00208478088891425</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4121773333333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N25">
-        <v>1.236532</v>
+        <v>328.145355</v>
       </c>
       <c r="O25">
-        <v>0.001823131339879293</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P25">
-        <v>0.001824127823450168</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q25">
-        <v>7.242486218894667</v>
+        <v>112.9375133758875</v>
       </c>
       <c r="R25">
-        <v>65.18237597005199</v>
+        <v>677.625080255325</v>
       </c>
       <c r="S25">
-        <v>0.0002043156749076786</v>
+        <v>0.0007255490996481636</v>
       </c>
       <c r="T25">
-        <v>0.0002192418363234181</v>
+        <v>0.0004946960241936511</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,51 +2031,51 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>17.571287</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H26">
-        <v>52.713861</v>
+        <v>718.868866</v>
       </c>
       <c r="I26">
-        <v>0.1120685440694613</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J26">
-        <v>0.1201899524281925</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>100.6318613333333</v>
+        <v>0.2680845</v>
       </c>
       <c r="N26">
-        <v>301.895584</v>
+        <v>0.536169</v>
       </c>
       <c r="O26">
-        <v>0.4451120557830785</v>
+        <v>0.0005812041106144338</v>
       </c>
       <c r="P26">
-        <v>0.4453553442621278</v>
+        <v>0.0003877157488557307</v>
       </c>
       <c r="Q26">
-        <v>1768.231316832203</v>
+        <v>64.239200169059</v>
       </c>
       <c r="R26">
-        <v>15914.08185148982</v>
+        <v>385.435201014354</v>
       </c>
       <c r="S26">
-        <v>0.04988306003937445</v>
+        <v>0.0004126945286076223</v>
       </c>
       <c r="T26">
-        <v>0.05352723764050644</v>
+        <v>0.0002813845990680232</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2093,51 +2093,51 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>54.68136733333333</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H27">
-        <v>164.044102</v>
+        <v>718.868866</v>
       </c>
       <c r="I27">
-        <v>0.3487542616983074</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J27">
-        <v>0.37402786366769</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M27">
-        <v>0.370512</v>
+        <v>0.01356733333333333</v>
       </c>
       <c r="N27">
-        <v>0.741024</v>
+        <v>0.040702</v>
       </c>
       <c r="O27">
-        <v>0.001638838393995521</v>
+        <v>2.941382252017391E-05</v>
       </c>
       <c r="P27">
-        <v>0.00109315609805839</v>
+        <v>2.943252297302894E-05</v>
       </c>
       <c r="Q27">
-        <v>20.260102773408</v>
+        <v>3.251044509325778</v>
       </c>
       <c r="R27">
-        <v>121.560616640448</v>
+        <v>29.259400583932</v>
       </c>
       <c r="S27">
-        <v>0.0005715518741407477</v>
+        <v>2.088581859250527E-05</v>
       </c>
       <c r="T27">
-        <v>0.0004088708400120875</v>
+        <v>2.136064552644163E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,7 +2146,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>3</v>
@@ -2155,51 +2155,51 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>54.68136733333333</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H28">
-        <v>164.044102</v>
+        <v>718.868866</v>
       </c>
       <c r="I28">
-        <v>0.3487542616983074</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J28">
-        <v>0.37402786366769</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>0.01356733333333333</v>
+        <v>160.3781766666667</v>
       </c>
       <c r="N28">
-        <v>0.040702</v>
+        <v>481.13453</v>
       </c>
       <c r="O28">
-        <v>6.001065220776088E-05</v>
+        <v>0.3476980412202665</v>
       </c>
       <c r="P28">
-        <v>6.004345271296557E-05</v>
+        <v>0.34791909752205</v>
       </c>
       <c r="Q28">
-        <v>0.7418803377337776</v>
+        <v>38430.29266383812</v>
       </c>
       <c r="R28">
-        <v>6.676923039603999</v>
+        <v>345872.633974543</v>
       </c>
       <c r="S28">
-        <v>2.092897070475154E-05</v>
+        <v>0.2468893054928575</v>
       </c>
       <c r="T28">
-        <v>2.245792434546248E-05</v>
+        <v>0.2525021902083705</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,51 +2217,51 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>54.68136733333333</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H29">
-        <v>164.044102</v>
+        <v>718.868866</v>
       </c>
       <c r="I29">
-        <v>0.3487542616983074</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J29">
-        <v>0.37402786366769</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M29">
-        <v>124.6539663333333</v>
+        <v>0.6111180000000001</v>
       </c>
       <c r="N29">
-        <v>373.961899</v>
+        <v>1.222236</v>
       </c>
       <c r="O29">
-        <v>0.5513659638308389</v>
+        <v>0.001324896790640531</v>
       </c>
       <c r="P29">
-        <v>0.5516673283636506</v>
+        <v>0.000883826080990197</v>
       </c>
       <c r="Q29">
-        <v>6816.249322629967</v>
+        <v>146.437901217396</v>
       </c>
       <c r="R29">
-        <v>61346.2439036697</v>
+        <v>878.6274073043761</v>
       </c>
       <c r="S29">
-        <v>0.1922912296413999</v>
+        <v>0.0009407670153762448</v>
       </c>
       <c r="T29">
-        <v>0.2063389522831183</v>
+        <v>0.0006414365374098549</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2279,51 +2279,51 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>54.68136733333333</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H30">
-        <v>164.044102</v>
+        <v>718.868866</v>
       </c>
       <c r="I30">
-        <v>0.3487542616983074</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J30">
-        <v>0.37402786366769</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>0.4121773333333333</v>
+        <v>190.6043296666667</v>
       </c>
       <c r="N30">
-        <v>1.236532</v>
+        <v>571.812989</v>
       </c>
       <c r="O30">
-        <v>0.001823131339879293</v>
+        <v>0.4132279930513526</v>
       </c>
       <c r="P30">
-        <v>0.001824127823450168</v>
+        <v>0.4134907113905666</v>
       </c>
       <c r="Q30">
-        <v>22.53842017047377</v>
+        <v>45673.17277405562</v>
       </c>
       <c r="R30">
-        <v>202.845781534264</v>
+        <v>411058.5549665005</v>
       </c>
       <c r="S30">
-        <v>0.0006358248244186487</v>
+        <v>0.2934200372731613</v>
       </c>
       <c r="T30">
-        <v>0.0006822746328618596</v>
+        <v>0.3000907711032398</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>54.68136733333333</v>
+        <v>239.6229553333334</v>
       </c>
       <c r="H31">
-        <v>164.044102</v>
+        <v>718.868866</v>
       </c>
       <c r="I31">
-        <v>0.3487542616983074</v>
+        <v>0.710068151739898</v>
       </c>
       <c r="J31">
-        <v>0.37402786366769</v>
+        <v>0.7257497274703861</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,400 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>100.6318613333333</v>
+        <v>109.381785</v>
       </c>
       <c r="N31">
-        <v>301.895584</v>
+        <v>328.145355</v>
       </c>
       <c r="O31">
-        <v>0.4451120557830785</v>
+        <v>0.2371384510046057</v>
       </c>
       <c r="P31">
-        <v>0.4453553442621278</v>
+        <v>0.2372892167345643</v>
       </c>
       <c r="Q31">
-        <v>5502.687775005063</v>
+        <v>26210.38658133527</v>
       </c>
       <c r="R31">
-        <v>49524.18997504556</v>
+        <v>235893.4792320174</v>
       </c>
       <c r="S31">
-        <v>0.1552347263876434</v>
+        <v>0.1683844616113027</v>
       </c>
       <c r="T31">
-        <v>0.1665753079873523</v>
+        <v>0.1722125843767714</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H32">
+        <v>48.198014</v>
+      </c>
+      <c r="I32">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J32">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0.2680845</v>
+      </c>
+      <c r="N32">
+        <v>0.536169</v>
+      </c>
+      <c r="O32">
+        <v>0.0005812041106144338</v>
+      </c>
+      <c r="P32">
+        <v>0.0003877157488557307</v>
+      </c>
+      <c r="Q32">
+        <v>4.307046828061001</v>
+      </c>
+      <c r="R32">
+        <v>25.842280968366</v>
+      </c>
+      <c r="S32">
+        <v>2.766993760382659E-05</v>
+      </c>
+      <c r="T32">
+        <v>1.886599835757106E-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H33">
+        <v>48.198014</v>
+      </c>
+      <c r="I33">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J33">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M33">
+        <v>0.01356733333333333</v>
+      </c>
+      <c r="N33">
+        <v>0.040702</v>
+      </c>
+      <c r="O33">
+        <v>2.941382252017391E-05</v>
+      </c>
+      <c r="P33">
+        <v>2.943252297302894E-05</v>
+      </c>
+      <c r="Q33">
+        <v>0.2179728406475556</v>
+      </c>
+      <c r="R33">
+        <v>1.961755565828</v>
+      </c>
+      <c r="S33">
+        <v>1.400331860975364E-06</v>
+      </c>
+      <c r="T33">
+        <v>1.432167591095079E-06</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H34">
+        <v>48.198014</v>
+      </c>
+      <c r="I34">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J34">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>160.3781766666667</v>
+      </c>
+      <c r="N34">
+        <v>481.13453</v>
+      </c>
+      <c r="O34">
+        <v>0.3476980412202665</v>
+      </c>
+      <c r="P34">
+        <v>0.34791909752205</v>
+      </c>
+      <c r="Q34">
+        <v>2576.636534758158</v>
+      </c>
+      <c r="R34">
+        <v>23189.72881282342</v>
+      </c>
+      <c r="S34">
+        <v>0.01655319177864496</v>
+      </c>
+      <c r="T34">
+        <v>0.01692951896277242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H35">
+        <v>48.198014</v>
+      </c>
+      <c r="I35">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J35">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>0.5</v>
+      </c>
+      <c r="M35">
+        <v>0.6111180000000001</v>
+      </c>
+      <c r="N35">
+        <v>1.222236</v>
+      </c>
+      <c r="O35">
+        <v>0.001324896790640531</v>
+      </c>
+      <c r="P35">
+        <v>0.000883826080990197</v>
+      </c>
+      <c r="Q35">
+        <v>9.818224639884003</v>
+      </c>
+      <c r="R35">
+        <v>58.909347839304</v>
+      </c>
+      <c r="S35">
+        <v>6.307562327764304E-05</v>
+      </c>
+      <c r="T35">
+        <v>4.300640724951317E-05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H36">
+        <v>48.198014</v>
+      </c>
+      <c r="I36">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J36">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>190.6043296666667</v>
+      </c>
+      <c r="N36">
+        <v>571.812989</v>
+      </c>
+      <c r="O36">
+        <v>0.4132279930513526</v>
+      </c>
+      <c r="P36">
+        <v>0.4134907113905666</v>
+      </c>
+      <c r="Q36">
+        <v>3062.250049911539</v>
+      </c>
+      <c r="R36">
+        <v>27560.25044920385</v>
+      </c>
+      <c r="S36">
+        <v>0.01967293860292504</v>
+      </c>
+      <c r="T36">
+        <v>0.02012019141597481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.06600466666667</v>
+      </c>
+      <c r="H37">
+        <v>48.198014</v>
+      </c>
+      <c r="I37">
+        <v>0.04760795235012129</v>
+      </c>
+      <c r="J37">
+        <v>0.04865935524479072</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>109.381785</v>
+      </c>
+      <c r="N37">
+        <v>328.145355</v>
+      </c>
+      <c r="O37">
+        <v>0.2371384510046057</v>
+      </c>
+      <c r="P37">
+        <v>0.2372892167345643</v>
+      </c>
+      <c r="Q37">
+        <v>1757.32826825833</v>
+      </c>
+      <c r="R37">
+        <v>15815.95441432497</v>
+      </c>
+      <c r="S37">
+        <v>0.01128967607580884</v>
+      </c>
+      <c r="T37">
+        <v>0.0115463402928453</v>
       </c>
     </row>
   </sheetData>
